--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2097108.851868361</v>
+        <v>-2099106.524881206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.15350474436701</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>381.1783139158361</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>87.1931730263256</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>62.46987885668163</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>83.82953530753669</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>205.1478855987994</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>409.5204125892126</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>155.5213153146489</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>128.728253158928</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>45.15939909649886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>108.1534309745591</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>110.7556055476715</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>56.88196987815806</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>190.6249203329746</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.5160634026645</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>160.075052841251</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520987</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>55.75000363773665</v>
       </c>
       <c r="T16" t="n">
-        <v>207.0920728595001</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>161.1706059301395</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.6255343941023</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.700090052297</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789518</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463105</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329028</v>
+        <v>77.28915789329096</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1373.145632153538</v>
+        <v>2081.650037011066</v>
       </c>
       <c r="C2" t="n">
-        <v>1004.183115213127</v>
+        <v>2081.650037011066</v>
       </c>
       <c r="D2" t="n">
-        <v>1004.183115213127</v>
+        <v>1723.384338404315</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>1337.596085806071</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2554.046489400912</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2335.411822372975</v>
       </c>
       <c r="U2" t="n">
-        <v>2457.870715598371</v>
+        <v>2081.650037011066</v>
       </c>
       <c r="V2" t="n">
-        <v>2126.8078282548</v>
+        <v>2081.650037011066</v>
       </c>
       <c r="W2" t="n">
-        <v>1774.039172984686</v>
+        <v>2081.650037011066</v>
       </c>
       <c r="X2" t="n">
-        <v>1400.573414723606</v>
+        <v>2081.650037011066</v>
       </c>
       <c r="Y2" t="n">
-        <v>1400.573414723606</v>
+        <v>2081.650037011066</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>2489.929004554789</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>2320.992821626882</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>2489.929004554789</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1717.512263598976</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C5" t="n">
-        <v>1717.512263598976</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D5" t="n">
-        <v>1359.246564992226</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1359.246564992226</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>948.2606602026181</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2308.850676171321</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="X5" t="n">
-        <v>1717.512263598976</v>
+        <v>2055.088890809413</v>
       </c>
       <c r="Y5" t="n">
-        <v>1717.512263598976</v>
+        <v>2055.088890809413</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.339819218074</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,7 +4805,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4832,22 +4832,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2411.7257134591</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2411.7257134591</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2080.66282611553</v>
       </c>
       <c r="W8" t="n">
-        <v>1936.700801904495</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="X8" t="n">
-        <v>1936.700801904495</v>
+        <v>1727.894170845416</v>
       </c>
       <c r="Y8" t="n">
-        <v>1936.700801904495</v>
+        <v>1727.894170845416</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,37 +4893,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>456.3840257941342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>456.3840257941342</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>506.1616404812942</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>261.804845931104</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>410.8745301331637</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.9573788353287</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C13" t="n">
-        <v>226.0211959074217</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D13" t="n">
-        <v>226.0211959074217</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>843.7395088768801</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X13" t="n">
-        <v>615.7499579788628</v>
+        <v>1137.304287906534</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.9573788353287</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,13 +5261,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,13 +5276,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1442.60313557029</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1218.817720359795</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>929.6890815733536</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>929.6890815733536</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>640.271911536393</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.9054447954965</v>
+        <v>579.0685056491543</v>
       </c>
       <c r="C19" t="n">
-        <v>130.9054447954965</v>
+        <v>410.1323227212474</v>
       </c>
       <c r="D19" t="n">
-        <v>130.9054447954965</v>
+        <v>260.0156833089117</v>
       </c>
       <c r="E19" t="n">
-        <v>130.9054447954965</v>
+        <v>260.0156833089117</v>
       </c>
       <c r="F19" t="n">
-        <v>130.9054447954965</v>
+        <v>260.0156833089117</v>
       </c>
       <c r="G19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>130.9054447954965</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>130.9054447954965</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.9054447954965</v>
+        <v>760.716970479394</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211725</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119729</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333287</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0280401274</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>844.0280401274</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>844.0280401274</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>844.0280401274</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,13 +5999,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C25" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F25" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,7 +6166,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
@@ -6181,16 +6181,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H28" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,10 +6479,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,25 +6692,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.603879777666</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2037.143944996363</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6874,34 +6874,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>229.0333923118347</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>378.1030765138945</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649686</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2520.760934363148</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,10 +7819,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>124.3400780863238</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>182.034074286795</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>230.7151863772029</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>349.765300333857</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,28 +9480,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>73.53204524669923</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9.900512684485989</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>433.7515527292973</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>286.5092576192346</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>91.23759968302141</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
-        <v>15.83804904622872</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>355.5803369191136</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>25.69773182587535</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.91789924390464</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,13 +23473,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>65.63460254778619</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.1708063458666</v>
       </c>
       <c r="T16" t="n">
-        <v>14.45548819888916</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>5.322962533238041</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>77.06777566241342</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.20644578783495</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-2.791100811593401e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1350885.617004505</v>
+        <v>1350885.617004506</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564044</v>
+        <v>36783.84869564042</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
@@ -26323,16 +26323,16 @@
         <v>39102.90597377087</v>
       </c>
       <c r="F2" t="n">
-        <v>39102.90597377086</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="G2" t="n">
+        <v>39102.90597377088</v>
+      </c>
+      <c r="H2" t="n">
         <v>39102.9059737709</v>
       </c>
-      <c r="H2" t="n">
-        <v>39102.90597377088</v>
-      </c>
       <c r="I2" t="n">
-        <v>41052.08849321422</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321424</v>
@@ -26341,19 +26341,19 @@
         <v>41052.08849321424</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="M2" t="n">
         <v>41052.0884932142</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321421</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687074</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687072</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>44593.39482819119</v>
@@ -26442,22 +26442,22 @@
         <v>44593.39482819119</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819114</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26500,7 +26500,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-752952.5614271401</v>
+        <v>-753165.9734170187</v>
       </c>
       <c r="C6" t="n">
         <v>-207439.8573567197</v>
@@ -26528,31 +26528,31 @@
         <v>-207439.8573567197</v>
       </c>
       <c r="E6" t="n">
-        <v>-600219.0640387124</v>
+        <v>-600316.5231646847</v>
       </c>
       <c r="F6" t="n">
-        <v>-75059.02756181652</v>
+        <v>-75156.48668778865</v>
       </c>
       <c r="G6" t="n">
-        <v>-75059.02756181645</v>
+        <v>-75156.48668778862</v>
       </c>
       <c r="H6" t="n">
-        <v>-75059.02756181646</v>
+        <v>-75156.48668778865</v>
       </c>
       <c r="I6" t="n">
-        <v>-155761.9242587149</v>
+        <v>-155761.9242587148</v>
       </c>
       <c r="J6" t="n">
-        <v>-277679.6313475952</v>
+        <v>-277679.6313475953</v>
       </c>
       <c r="K6" t="n">
-        <v>-101256.4121550023</v>
+        <v>-101256.4121550024</v>
       </c>
       <c r="L6" t="n">
         <v>-101256.4121550024</v>
       </c>
       <c r="M6" t="n">
-        <v>-236057.4273888396</v>
+        <v>-236057.4273888395</v>
       </c>
       <c r="N6" t="n">
         <v>-155761.9242587149</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,25 +26738,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541001</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>87.22253978264594</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>188.7542886516077</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>141.8801200815005</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329538</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>4.263757431582349</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>60.92700504300885</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.5536210830497</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.4252542555959</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>108.2948893830986</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>238.4853631697415</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>168.1531355799262</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>95.89807800361643</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>166.2502570412304</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>389.1274892183196</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>563.9097597752159</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>660.1896773843232</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>383.9564222971657</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>343.0950860824988</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36674,7 +36674,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,16 +36683,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>766.9461261273101</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686864</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>493.6026725507592</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>133.1477786379281</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.8510818313028</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>340.4953046390457</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
